--- a/spreadsheets/Ekko.xlsx
+++ b/spreadsheets/Ekko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A84068-1DBD-4DE5-A44E-0C04F7E8CF2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8152266-220E-4E12-8FA5-267F7F022246}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="2730" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>Champion</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Cho'Gath</t>
   </si>
   <si>
-    <t>He cant really kill you unless you misplay at lv6. Farm up/gank him since he is immobile. Lyrandies is good vs him.</t>
-  </si>
-  <si>
     <t>Corki</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Heimerdinger</t>
   </si>
   <si>
-    <t>Hiemer is super annoying during early levels but you just one shot him with protobelt. Just survive and then jump on him with 'W'</t>
-  </si>
-  <si>
     <t>op.gg</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>portrait</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1iJiekAlZ3vBDuG2_BXSO-flX-Elym7ua/view?usp=sharing</t>
-  </si>
-  <si>
     <t>You outdamage malzahar at all stages. You can also get extra gold by killing his minions. Also very immobile and easily ganked.</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
     <t>Pantheon</t>
   </si>
   <si>
-    <t>Panth wants to just jump on you, so stand furthur back. Build armor and 'E' behind him when he puts up his shield.</t>
-  </si>
-  <si>
     <t>Qiyana</t>
   </si>
   <si>
@@ -416,13 +404,28 @@
   </si>
   <si>
     <t>Follow Maxske for more Ekko content!</t>
+  </si>
+  <si>
+    <t>Heimer is super annoying during early levels but you just one shot him with protobelt. Just survive and then jump on him with 'W'</t>
+  </si>
+  <si>
+    <t>Panth wants to just jump on you, so stand further back. Build armor and 'E' behind him when he puts up his shield.</t>
+  </si>
+  <si>
+    <t>He cant really kill you unless you misplay at lv6. Farm up/gank him since he is immobile. Liandries is good vs him.</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bm3g64x.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,12 +436,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -454,6 +451,41 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,19 +505,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -774,14 +813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="133.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="26" width="7.625" customWidth="1"/>
@@ -791,8 +830,8 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>127</v>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -802,8 +841,8 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>127</v>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -813,7 +852,7 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -824,7 +863,7 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -835,71 +874,76 @@
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>86</v>
+      <c r="A8" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>128</v>
+        <v>74</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1888,7 +1932,7 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{3CEACFED-D351-4FED-BCC2-2A7A8E985B25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -1900,37 +1944,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="81.625" customWidth="1"/>
+    <col min="3" max="3" width="115.625" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1938,13 +1982,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1952,13 +1996,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1966,13 +2010,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1980,13 +2024,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1994,13 +2038,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2008,24 +2052,24 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2033,410 +2077,410 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <v>4</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="5">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="9">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="8">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="C20" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="8">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="C21" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="9">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="8">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="8">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="8">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="8">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="9">
+        <v>5</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="8">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="9">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="8">
+        <v>4</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="8">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="C38" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="8">
+        <v>4</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="8">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="8">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="8">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="8">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="5">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="5">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="C43" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="8">
         <v>5</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="5">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="5">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="5">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="5">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="5">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="C44" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="8">
         <v>6</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="5">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="5">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="5">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="5">
-        <v>10</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="5">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="5">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="5">
-        <v>7</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="3">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="5">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="5">
-        <v>3</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="5">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="5">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="5">
-        <v>4</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="5">
-        <v>4</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="5">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="5">
-        <v>5</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="C46" s="8" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="5">
-        <v>3</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="5">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3395,6 +3439,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>